--- a/소비자물가지수.xlsx
+++ b/소비자물가지수.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4deb81cd635f468a/바탕 화면/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4deb81cd635f468a/문서/GitHub/data_sets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD149CB3-3D66-488B-B62C-D884356F10D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{CD149CB3-3D66-488B-B62C-D884356F10D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF7DC176-E3BA-45D7-9A86-FD9175F5996B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,23 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>통계표</t>
   </si>
   <si>
-    <t>계정항목</t>
-  </si>
-  <si>
-    <t>단위</t>
-  </si>
-  <si>
-    <t>가중치</t>
-  </si>
-  <si>
-    <t>변환</t>
-  </si>
-  <si>
     <t>2018/10</t>
   </si>
   <si>
@@ -219,18 +207,6 @@
   </si>
   <si>
     <t>2023/10</t>
-  </si>
-  <si>
-    <t>4.2.1. 소비자물가지수</t>
-  </si>
-  <si>
-    <t>총지수</t>
-  </si>
-  <si>
-    <t>2020=100</t>
-  </si>
-  <si>
-    <t>원자료</t>
   </si>
   <si>
     <t>주석</t>
@@ -257,12 +233,20 @@
 - 5일 내외의 수록 시차가 있으므로 필요시 통계 생산 기관을 이용하시기 바랍니다. 
 </t>
   </si>
+  <si>
+    <t>소비자동향조사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비자물가지수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -284,6 +268,45 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF555555"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8.75"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -298,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -330,13 +353,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -344,16 +380,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,23 +717,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN2"/>
+  <dimension ref="A1:BJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:U9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="26"/>
     <col min="2" max="2" width="11"/>
-    <col min="3" max="3" width="13"/>
-    <col min="4" max="5" width="9"/>
-    <col min="6" max="6" width="11"/>
-    <col min="7" max="17" width="10"/>
-    <col min="18" max="18" width="11"/>
-    <col min="19" max="66" width="10"/>
+    <col min="3" max="13" width="10"/>
+    <col min="14" max="14" width="11"/>
+    <col min="15" max="62" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="23.25" customHeight="1">
+    <row r="1" spans="1:62" ht="23.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,217 +919,514 @@
       <c r="BJ1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:62" ht="23.25" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="3">
+        <v>100.041</v>
+      </c>
+      <c r="C2" s="3">
+        <v>99.33</v>
+      </c>
+      <c r="D2" s="3">
+        <v>98.988</v>
+      </c>
+      <c r="E2" s="3">
+        <v>98.884</v>
+      </c>
+      <c r="F2" s="3">
+        <v>99.311000000000007</v>
+      </c>
+      <c r="G2" s="3">
+        <v>99.120999999999995</v>
+      </c>
+      <c r="H2" s="3">
+        <v>99.480999999999995</v>
+      </c>
+      <c r="I2" s="3">
+        <v>99.652000000000001</v>
+      </c>
+      <c r="J2" s="3">
+        <v>99.491</v>
+      </c>
+      <c r="K2" s="3">
+        <v>99.186999999999998</v>
+      </c>
+      <c r="L2" s="3">
+        <v>99.424999999999997</v>
+      </c>
+      <c r="M2" s="3">
+        <v>99.793999999999997</v>
+      </c>
+      <c r="N2" s="3">
+        <v>100.041</v>
+      </c>
+      <c r="O2" s="3">
+        <v>99.480999999999995</v>
+      </c>
+      <c r="P2" s="3">
+        <v>99.718999999999994</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>100.09</v>
+      </c>
+      <c r="R2" s="3">
+        <v>100.16</v>
+      </c>
+      <c r="S2" s="3">
+        <v>99.94</v>
+      </c>
+      <c r="T2" s="3">
+        <v>99.5</v>
+      </c>
+      <c r="U2" s="3">
+        <v>99.44</v>
+      </c>
+      <c r="V2" s="3">
+        <v>99.71</v>
+      </c>
+      <c r="W2" s="3">
+        <v>99.63</v>
+      </c>
+      <c r="X2" s="3">
+        <v>100.19</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>100.74</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>100.18</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>100.09</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>100.33</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>101.04</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>101.58</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>101.84</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>101.98</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>102.05</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>102.05</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>102.26</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>102.75</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>103.17</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>103.35</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>103.87</v>
+      </c>
+      <c r="AN2" s="3">
+        <v>104.04</v>
+      </c>
+      <c r="AO2" s="3">
+        <v>104.69</v>
+      </c>
+      <c r="AP2" s="3">
+        <v>105.3</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>106.06</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>106.85</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>107.56</v>
+      </c>
+      <c r="AT2" s="3">
+        <v>108.22</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>108.74</v>
+      </c>
+      <c r="AV2" s="3">
+        <v>108.62</v>
+      </c>
+      <c r="AW2" s="3">
+        <v>108.93</v>
+      </c>
+      <c r="AX2" s="3">
+        <v>109.21</v>
+      </c>
+      <c r="AY2" s="3">
+        <v>109.1</v>
+      </c>
+      <c r="AZ2" s="3">
+        <v>109.28</v>
+      </c>
+      <c r="BA2" s="3">
+        <v>110.1</v>
+      </c>
+      <c r="BB2" s="3">
+        <v>110.38</v>
+      </c>
+      <c r="BC2" s="3">
+        <v>110.56</v>
+      </c>
+      <c r="BD2" s="3">
+        <v>110.8</v>
+      </c>
+      <c r="BE2" s="3">
+        <v>111.13</v>
+      </c>
+      <c r="BF2" s="3">
+        <v>111.12</v>
+      </c>
+      <c r="BG2" s="3">
+        <v>111.2</v>
+      </c>
+      <c r="BH2" s="3">
+        <v>112.33</v>
+      </c>
+      <c r="BI2" s="3">
+        <v>112.99</v>
+      </c>
+      <c r="BJ2" s="3">
+        <v>113.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" ht="16">
+      <c r="A3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="B3">
+        <v>100.1</v>
+      </c>
+      <c r="C3">
+        <v>96.6</v>
+      </c>
+      <c r="D3">
+        <v>97.7</v>
+      </c>
+      <c r="E3">
+        <v>98.4</v>
+      </c>
+      <c r="F3">
+        <v>100.4</v>
+      </c>
+      <c r="G3">
+        <v>100.7</v>
+      </c>
+      <c r="H3">
+        <v>102.5</v>
+      </c>
+      <c r="I3">
+        <v>98.8</v>
+      </c>
+      <c r="J3">
+        <v>98.4</v>
+      </c>
+      <c r="K3">
+        <v>96.9</v>
+      </c>
+      <c r="L3">
+        <v>93.4</v>
+      </c>
+      <c r="M3">
+        <v>97.9</v>
+      </c>
+      <c r="N3">
+        <v>99.5</v>
+      </c>
+      <c r="O3">
+        <v>101.8</v>
+      </c>
+      <c r="P3">
+        <v>101.4</v>
+      </c>
+      <c r="Q3">
+        <v>105</v>
+      </c>
+      <c r="R3">
+        <v>97.8</v>
+      </c>
+      <c r="S3">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="T3">
+        <v>72.5</v>
+      </c>
+      <c r="U3">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="V3">
+        <v>83.3</v>
+      </c>
+      <c r="W3">
+        <v>85.6</v>
+      </c>
+      <c r="X3">
+        <v>89.4</v>
+      </c>
+      <c r="Y3">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="Z3">
+        <v>92.7</v>
+      </c>
+      <c r="AA3">
+        <v>99</v>
+      </c>
+      <c r="AB3">
+        <v>91</v>
+      </c>
+      <c r="AC3">
+        <v>95.3</v>
+      </c>
+      <c r="AD3">
+        <v>97.4</v>
+      </c>
+      <c r="AE3">
+        <v>100.5</v>
+      </c>
+      <c r="AF3">
+        <v>102.3</v>
+      </c>
+      <c r="AG3">
+        <v>105.3</v>
+      </c>
+      <c r="AH3">
+        <v>110.5</v>
+      </c>
+      <c r="AI3">
+        <v>103.4</v>
+      </c>
+      <c r="AJ3">
+        <v>102.7</v>
+      </c>
+      <c r="AK3">
+        <v>103.9</v>
+      </c>
+      <c r="AL3">
+        <v>107</v>
+      </c>
+      <c r="AM3">
+        <v>107.9</v>
+      </c>
+      <c r="AN3">
+        <v>104.1</v>
+      </c>
+      <c r="AO3">
+        <v>104.7</v>
+      </c>
+      <c r="AP3">
+        <v>103.3</v>
+      </c>
+      <c r="AQ3">
+        <v>103.5</v>
+      </c>
+      <c r="AR3">
+        <v>104.1</v>
+      </c>
+      <c r="AS3">
+        <v>102.9</v>
+      </c>
+      <c r="AT3">
+        <v>96.7</v>
+      </c>
+      <c r="AU3">
+        <v>86.3</v>
+      </c>
+      <c r="AV3">
+        <v>89</v>
+      </c>
+      <c r="AW3">
+        <v>91.6</v>
+      </c>
+      <c r="AX3">
+        <v>89</v>
+      </c>
+      <c r="AY3">
+        <v>86.7</v>
+      </c>
+      <c r="AZ3">
+        <v>90.2</v>
+      </c>
+      <c r="BA3">
+        <v>90.7</v>
+      </c>
+      <c r="BB3">
+        <v>90.2</v>
+      </c>
+      <c r="BC3">
+        <v>92</v>
+      </c>
+      <c r="BD3">
+        <v>95.1</v>
+      </c>
+      <c r="BE3">
+        <v>98</v>
+      </c>
+      <c r="BF3">
+        <v>100.7</v>
+      </c>
+      <c r="BG3">
+        <v>103.2</v>
+      </c>
+      <c r="BH3">
+        <v>103.1</v>
+      </c>
+      <c r="BI3">
+        <v>99.7</v>
+      </c>
+      <c r="BJ3">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" ht="13">
+      <c r="A4" s="6"/>
+    </row>
+    <row r="8" spans="1:62" ht="17.5">
+      <c r="A8" s="5" t="s">
         <v>65</v>
       </c>
+      <c r="B8" s="7">
+        <v>99.453000000000003</v>
+      </c>
+      <c r="C8" s="7">
+        <v>99.105000000000004</v>
+      </c>
+      <c r="D8" s="7">
+        <v>99.540999999999997</v>
+      </c>
+      <c r="E8" s="7">
+        <v>99.468999999999994</v>
+      </c>
+      <c r="F8" s="7">
+        <v>99.747</v>
+      </c>
+      <c r="G8" s="7">
+        <v>100.063</v>
+      </c>
+      <c r="H8" s="7">
+        <v>99.55</v>
+      </c>
+      <c r="I8" s="7">
+        <v>100.187</v>
+      </c>
+      <c r="J8" s="7">
+        <v>100.2</v>
+      </c>
+      <c r="K8" s="7">
+        <v>101.48699999999999</v>
+      </c>
+      <c r="L8" s="7">
+        <v>102.027</v>
+      </c>
+      <c r="M8" s="7">
+        <v>102.727</v>
+      </c>
+      <c r="N8" s="7">
+        <v>103.753</v>
+      </c>
+      <c r="O8" s="7">
+        <v>105.35</v>
+      </c>
+      <c r="P8" s="7">
+        <v>107.54300000000001</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>108.76300000000001</v>
+      </c>
+      <c r="R8" s="7">
+        <v>109.197</v>
+      </c>
+      <c r="S8" s="7">
+        <v>110.34699999999999</v>
+      </c>
+      <c r="T8" s="7">
+        <v>111.017</v>
+      </c>
+      <c r="U8" s="7">
+        <v>112.173</v>
+      </c>
     </row>
-    <row r="2" spans="1:66" ht="23.25" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="5">
-        <v>100.041</v>
-      </c>
-      <c r="G2" s="5">
-        <v>99.33</v>
-      </c>
-      <c r="H2" s="5">
-        <v>98.988</v>
-      </c>
-      <c r="I2" s="5">
-        <v>98.884</v>
-      </c>
-      <c r="J2" s="5">
-        <v>99.311000000000007</v>
-      </c>
-      <c r="K2" s="5">
-        <v>99.120999999999995</v>
-      </c>
-      <c r="L2" s="5">
-        <v>99.480999999999995</v>
-      </c>
-      <c r="M2" s="5">
-        <v>99.652000000000001</v>
-      </c>
-      <c r="N2" s="5">
-        <v>99.491</v>
-      </c>
-      <c r="O2" s="5">
-        <v>99.186999999999998</v>
-      </c>
-      <c r="P2" s="5">
-        <v>99.424999999999997</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>99.793999999999997</v>
-      </c>
-      <c r="R2" s="5">
-        <v>100.041</v>
-      </c>
-      <c r="S2" s="5">
-        <v>99.480999999999995</v>
-      </c>
-      <c r="T2" s="5">
-        <v>99.718999999999994</v>
-      </c>
-      <c r="U2" s="5">
-        <v>100.09</v>
-      </c>
-      <c r="V2" s="5">
-        <v>100.16</v>
-      </c>
-      <c r="W2" s="5">
-        <v>99.94</v>
-      </c>
-      <c r="X2" s="5">
-        <v>99.5</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>99.44</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>99.71</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>99.63</v>
-      </c>
-      <c r="AB2" s="5">
-        <v>100.19</v>
-      </c>
-      <c r="AC2" s="5">
-        <v>100.74</v>
-      </c>
-      <c r="AD2" s="5">
-        <v>100.18</v>
-      </c>
-      <c r="AE2" s="5">
-        <v>100.09</v>
-      </c>
-      <c r="AF2" s="5">
-        <v>100.33</v>
-      </c>
-      <c r="AG2" s="5">
-        <v>101.04</v>
-      </c>
-      <c r="AH2" s="5">
-        <v>101.58</v>
-      </c>
-      <c r="AI2" s="5">
-        <v>101.84</v>
-      </c>
-      <c r="AJ2" s="5">
-        <v>101.98</v>
-      </c>
-      <c r="AK2" s="5">
-        <v>102.05</v>
-      </c>
-      <c r="AL2" s="5">
-        <v>102.05</v>
-      </c>
-      <c r="AM2" s="5">
-        <v>102.26</v>
-      </c>
-      <c r="AN2" s="5">
-        <v>102.75</v>
-      </c>
-      <c r="AO2" s="5">
-        <v>103.17</v>
-      </c>
-      <c r="AP2" s="5">
-        <v>103.35</v>
-      </c>
-      <c r="AQ2" s="5">
-        <v>103.87</v>
-      </c>
-      <c r="AR2" s="5">
-        <v>104.04</v>
-      </c>
-      <c r="AS2" s="5">
-        <v>104.69</v>
-      </c>
-      <c r="AT2" s="5">
-        <v>105.3</v>
-      </c>
-      <c r="AU2" s="5">
-        <v>106.06</v>
-      </c>
-      <c r="AV2" s="5">
-        <v>106.85</v>
-      </c>
-      <c r="AW2" s="5">
-        <v>107.56</v>
-      </c>
-      <c r="AX2" s="5">
-        <v>108.22</v>
-      </c>
-      <c r="AY2" s="5">
-        <v>108.74</v>
-      </c>
-      <c r="AZ2" s="5">
-        <v>108.62</v>
-      </c>
-      <c r="BA2" s="5">
-        <v>108.93</v>
-      </c>
-      <c r="BB2" s="5">
-        <v>109.21</v>
-      </c>
-      <c r="BC2" s="5">
-        <v>109.1</v>
-      </c>
-      <c r="BD2" s="5">
-        <v>109.28</v>
-      </c>
-      <c r="BE2" s="5">
-        <v>110.1</v>
-      </c>
-      <c r="BF2" s="5">
-        <v>110.38</v>
-      </c>
-      <c r="BG2" s="5">
-        <v>110.56</v>
-      </c>
-      <c r="BH2" s="5">
-        <v>110.8</v>
-      </c>
-      <c r="BI2" s="5">
-        <v>111.13</v>
-      </c>
-      <c r="BJ2" s="5">
-        <v>111.12</v>
-      </c>
-      <c r="BK2" s="5">
-        <v>111.2</v>
-      </c>
-      <c r="BL2" s="5">
-        <v>112.33</v>
-      </c>
-      <c r="BM2" s="5">
-        <v>112.99</v>
-      </c>
-      <c r="BN2" s="5">
-        <v>113.37</v>
+    <row r="9" spans="1:62" ht="16.5" thickBot="1">
+      <c r="A9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="8">
+        <v>98.132999999999996</v>
+      </c>
+      <c r="C9" s="9">
+        <v>99.832999999999998</v>
+      </c>
+      <c r="D9" s="9">
+        <v>99.9</v>
+      </c>
+      <c r="E9" s="9">
+        <v>96.066999999999993</v>
+      </c>
+      <c r="F9" s="9">
+        <v>100.9</v>
+      </c>
+      <c r="G9" s="9">
+        <v>94.233000000000004</v>
+      </c>
+      <c r="H9" s="9">
+        <v>78.3</v>
+      </c>
+      <c r="I9" s="8">
+        <v>85.3</v>
+      </c>
+      <c r="J9" s="9">
+        <v>94.233000000000004</v>
+      </c>
+      <c r="K9" s="8">
+        <v>97.733000000000004</v>
+      </c>
+      <c r="L9" s="9">
+        <v>106.033</v>
+      </c>
+      <c r="M9" s="8">
+        <v>103.333</v>
+      </c>
+      <c r="N9" s="9">
+        <v>106.333</v>
+      </c>
+      <c r="O9" s="8">
+        <v>103.833</v>
+      </c>
+      <c r="P9" s="8">
+        <v>101.233</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>88.966999999999999</v>
+      </c>
+      <c r="R9" s="9">
+        <v>88.632999999999996</v>
+      </c>
+      <c r="S9" s="8">
+        <v>90.966999999999999</v>
+      </c>
+      <c r="T9" s="8">
+        <v>97.933000000000007</v>
+      </c>
+      <c r="U9" s="9">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1097,23 +1441,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="163"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="23.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="409.6" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>71</v>
+      <c r="A2" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>